--- a/Dragonfall/gameData/shared/Dragons.xlsx
+++ b/Dragonfall/gameData/shared/Dragons.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="297" activeTab="1"/>
+    <workbookView xWindow="4760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
     <sheet name="fightFix" sheetId="61" r:id="rId2"/>
     <sheet name="dragonStar" sheetId="64" r:id="rId3"/>
     <sheet name="dragonLevel" sheetId="62" r:id="rId4"/>
-    <sheet name="dragonSkills" sheetId="63" r:id="rId5"/>
+    <sheet name="dragonBuff" sheetId="65" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -49,20 +49,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>dragonBreath</t>
   </si>
   <si>
     <t>siegeEnhance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>frenzied</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>insensitive</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -77,42 +69,6 @@
   </si>
   <si>
     <t>greenDragon</t>
-  </si>
-  <si>
-    <t>STR_skill_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>crown,armguardLeft,armguardRight</t>
@@ -143,9 +99,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>battleHunger</t>
-  </si>
-  <si>
     <t>infantryEnhance</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -163,18 +116,6 @@
   </si>
   <si>
     <t>leadership</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greedy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>recover</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthquake</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -206,78 +147,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>infantryEnhance,archerEnhance,dragonBlood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance,dragonBreath,leadership</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance,dragonBreath,leadership,greedy,frenzied,recover,insensitive,earthquake,battleHunger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_infantryEnhanceBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_archerEnhanceBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_cavalryEnhanceBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_siegeEnhanceBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonBreathBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_leadershipBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greedyBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_frenziedBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_recoverBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_insensitiveBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_earthquakeBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_battleHungerBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonBloodBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_initStrength</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -291,6 +160,100 @@
   </si>
   <si>
     <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightningStorm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>poisonNova</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>surge</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>earthquake</t>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood,leadership,greedy,surge,earthquake</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood,leadership,greedy,surge,earthquake</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_hpFrom</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_hpTo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_buffPercent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +422,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1498">
+  <cellStyleXfs count="1526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -474,6 +437,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1990,7 +1981,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1498">
+  <cellStyles count="1526">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2742,6 +2733,20 @@
     <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1524" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3486,6 +3491,20 @@
     <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1525" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3938,70 +3957,71 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -4010,30 +4030,30 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -4042,30 +4062,30 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -4074,394 +4094,394 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" ht="20" customHeight="1">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" ht="20" customHeight="1">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" ht="20" customHeight="1">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" ht="20" customHeight="1">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="20" customHeight="1">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" ht="20" customHeight="1">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" ht="20" customHeight="1">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="20" customHeight="1">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="20" customHeight="1">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="20" customHeight="1">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="20" customHeight="1">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" ht="20" customHeight="1">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="20" customHeight="1">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" ht="20" customHeight="1">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" ht="20" customHeight="1">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="20" customHeight="1">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="20" customHeight="1">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="20" customHeight="1">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="20" customHeight="1">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="20" customHeight="1">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" ht="20" customHeight="1">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="20" customHeight="1">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" ht="20" customHeight="1">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="20" customHeight="1">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" ht="20" customHeight="1">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" ht="20" customHeight="1">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" ht="20" customHeight="1">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="20" customHeight="1">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" ht="20" customHeight="1">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" ht="20" customHeight="1">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" ht="20" customHeight="1">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" ht="20" customHeight="1">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" ht="20" customHeight="1">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" ht="20" customHeight="1">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" ht="20" customHeight="1">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" ht="20" customHeight="1">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" ht="20" customHeight="1">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4479,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4493,16 +4513,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4578,38 +4598,40 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="17.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="52" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="17.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="107.33203125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -4629,7 +4651,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4649,10 +4671,10 @@
         <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4672,10 +4694,10 @@
         <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4695,10 +4717,10 @@
         <v>372</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -4718,10 +4740,10 @@
         <v>995</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -5301,7 +5323,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5319,19 +5341,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6333,1137 +6355,366 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="2"/>
+    <col min="3" max="3" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="2">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
-        <v>80</v>
-      </c>
-      <c r="I2" s="2">
-        <v>100</v>
-      </c>
-      <c r="J2" s="2">
-        <v>140</v>
-      </c>
-      <c r="K2" s="2">
-        <v>140</v>
-      </c>
-      <c r="L2" s="2">
-        <v>140</v>
-      </c>
-      <c r="M2" s="2">
-        <v>140</v>
-      </c>
-      <c r="N2" s="2">
-        <v>140</v>
-      </c>
-      <c r="O2" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" customHeight="1">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>140</v>
-      </c>
-      <c r="F3" s="2">
-        <v>120</v>
-      </c>
-      <c r="G3" s="2">
-        <v>120</v>
-      </c>
-      <c r="H3" s="2">
-        <v>200</v>
-      </c>
-      <c r="I3" s="2">
-        <v>240</v>
-      </c>
-      <c r="J3" s="2">
-        <v>340</v>
-      </c>
-      <c r="K3" s="2">
-        <v>340</v>
-      </c>
-      <c r="L3" s="2">
-        <v>340</v>
-      </c>
-      <c r="M3" s="2">
-        <v>340</v>
-      </c>
-      <c r="N3" s="2">
-        <v>340</v>
-      </c>
-      <c r="O3" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1">
-      <c r="A4" s="2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="2">
-        <v>180</v>
-      </c>
-      <c r="D4" s="3">
-        <v>180</v>
-      </c>
-      <c r="E4" s="2">
-        <v>240</v>
-      </c>
-      <c r="F4" s="2">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>200</v>
-      </c>
-      <c r="H4" s="2">
-        <v>340</v>
-      </c>
-      <c r="I4" s="2">
-        <v>400</v>
-      </c>
-      <c r="J4" s="2">
-        <v>580</v>
-      </c>
-      <c r="K4" s="2">
-        <v>580</v>
-      </c>
-      <c r="L4" s="2">
-        <v>580</v>
-      </c>
-      <c r="M4" s="2">
-        <v>580</v>
-      </c>
-      <c r="N4" s="2">
-        <v>580</v>
-      </c>
-      <c r="O4" s="2">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="20" customHeight="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
       <c r="B5" s="2">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>260</v>
-      </c>
-      <c r="D5" s="3">
-        <v>260</v>
-      </c>
-      <c r="E5" s="2">
-        <v>340</v>
-      </c>
-      <c r="F5" s="2">
-        <v>300</v>
-      </c>
-      <c r="G5" s="2">
-        <v>300</v>
-      </c>
-      <c r="H5" s="2">
-        <v>500</v>
-      </c>
-      <c r="I5" s="2">
-        <v>580</v>
-      </c>
-      <c r="J5" s="2">
-        <v>840</v>
-      </c>
-      <c r="K5" s="2">
-        <v>840</v>
-      </c>
-      <c r="L5" s="2">
-        <v>840</v>
-      </c>
-      <c r="M5" s="2">
-        <v>840</v>
-      </c>
-      <c r="N5" s="2">
-        <v>840</v>
-      </c>
-      <c r="O5" s="2">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="20" customHeight="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>340</v>
-      </c>
-      <c r="D6" s="3">
-        <v>340</v>
-      </c>
-      <c r="E6" s="2">
-        <v>460</v>
-      </c>
-      <c r="F6" s="2">
-        <v>400</v>
-      </c>
-      <c r="G6" s="2">
-        <v>400</v>
-      </c>
-      <c r="H6" s="2">
-        <v>680</v>
-      </c>
-      <c r="I6" s="2">
-        <v>800</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>840</v>
-      </c>
-      <c r="D7" s="3">
-        <v>840</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1120</v>
-      </c>
-      <c r="F7" s="2">
-        <v>980</v>
-      </c>
-      <c r="G7" s="2">
-        <v>980</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1680</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1960</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1220</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1220</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1620</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1420</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1420</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2420</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2820</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="K8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="M8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="O8" s="2">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1620</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1620</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2160</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1900</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1900</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3240</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3780</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="L9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="M9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="O9" s="2">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="20" customHeight="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2080</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2080</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2780</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2420</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2420</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4160</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4840</v>
-      </c>
-      <c r="J10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="K10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="L10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="M10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="N10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="O10" s="2">
-        <v>6920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="20" customHeight="1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.2</v>
       </c>
-      <c r="C11" s="2">
-        <v>2580</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2580</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3420</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5140</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5980</v>
-      </c>
-      <c r="J11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="K11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="L11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="M11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="N11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="O11" s="2">
-        <v>8540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="20" customHeight="1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6660</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6660</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8860</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7760</v>
-      </c>
-      <c r="G12" s="2">
-        <v>7760</v>
-      </c>
-      <c r="H12" s="2">
-        <v>13300</v>
-      </c>
-      <c r="I12" s="2">
-        <v>15520</v>
-      </c>
-      <c r="J12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="K12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="L12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="M12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="N12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="O12" s="2">
-        <v>22160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20" customHeight="1">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9880</v>
-      </c>
-      <c r="D13" s="3">
-        <v>9880</v>
-      </c>
-      <c r="E13" s="2">
-        <v>13160</v>
-      </c>
-      <c r="F13" s="2">
-        <v>11520</v>
-      </c>
-      <c r="G13" s="2">
-        <v>11520</v>
-      </c>
-      <c r="H13" s="2">
-        <v>19740</v>
-      </c>
-      <c r="I13" s="2">
-        <v>23040</v>
-      </c>
-      <c r="J13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="K13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="L13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="M13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="N13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="O13" s="2">
-        <v>32900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20" customHeight="1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13720</v>
-      </c>
-      <c r="D14" s="3">
-        <v>13720</v>
-      </c>
-      <c r="E14" s="2">
-        <v>18280</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16000</v>
-      </c>
-      <c r="H14" s="2">
-        <v>27420</v>
-      </c>
-      <c r="I14" s="2">
-        <v>32000</v>
-      </c>
-      <c r="J14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="K14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="L14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="M14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="N14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="O14" s="2">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="2">
-        <v>18180</v>
-      </c>
-      <c r="D15" s="3">
-        <v>18180</v>
-      </c>
-      <c r="E15" s="2">
-        <v>24220</v>
-      </c>
-      <c r="F15" s="2">
-        <v>21200</v>
-      </c>
-      <c r="G15" s="2">
-        <v>21200</v>
-      </c>
-      <c r="H15" s="2">
-        <v>36340</v>
-      </c>
-      <c r="I15" s="2">
-        <v>42400</v>
-      </c>
-      <c r="J15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="K15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="L15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="M15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="N15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="O15" s="2">
-        <v>60560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20" customHeight="1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>23240</v>
-      </c>
-      <c r="D16" s="3">
-        <v>23240</v>
-      </c>
-      <c r="E16" s="2">
-        <v>30980</v>
-      </c>
-      <c r="F16" s="2">
-        <v>27120</v>
-      </c>
-      <c r="G16" s="2">
-        <v>27120</v>
-      </c>
-      <c r="H16" s="2">
-        <v>46480</v>
-      </c>
-      <c r="I16" s="2">
-        <v>54220</v>
-      </c>
-      <c r="J16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="K16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="L16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="M16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="N16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="O16" s="2">
-        <v>77440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44240</v>
-      </c>
-      <c r="D17" s="3">
-        <v>44240</v>
-      </c>
-      <c r="E17" s="2">
-        <v>59000</v>
-      </c>
-      <c r="F17" s="2">
-        <v>51620</v>
-      </c>
-      <c r="G17" s="2">
-        <v>51620</v>
-      </c>
-      <c r="H17" s="2">
-        <v>88480</v>
-      </c>
-      <c r="I17" s="2">
-        <v>103220</v>
-      </c>
-      <c r="J17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="K17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="L17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="M17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="N17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="O17" s="2">
-        <v>147460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="C18" s="2">
-        <v>60220</v>
-      </c>
-      <c r="D18" s="3">
-        <v>60220</v>
-      </c>
-      <c r="E18" s="2">
-        <v>80300</v>
-      </c>
-      <c r="F18" s="2">
-        <v>70260</v>
-      </c>
-      <c r="G18" s="2">
-        <v>70260</v>
-      </c>
-      <c r="H18" s="2">
-        <v>120440</v>
-      </c>
-      <c r="I18" s="2">
-        <v>140500</v>
-      </c>
-      <c r="J18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="K18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="L18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="M18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="N18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="O18" s="2">
-        <v>200720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>78660</v>
-      </c>
-      <c r="D19" s="3">
-        <v>78660</v>
-      </c>
-      <c r="E19" s="2">
-        <v>104860</v>
-      </c>
-      <c r="F19" s="2">
-        <v>91760</v>
-      </c>
-      <c r="G19" s="2">
-        <v>91760</v>
-      </c>
-      <c r="H19" s="2">
-        <v>157300</v>
-      </c>
-      <c r="I19" s="2">
-        <v>183520</v>
-      </c>
-      <c r="J19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="K19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="L19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="M19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="N19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="O19" s="2">
-        <v>262160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="20" customHeight="1">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="C20" s="2">
-        <v>99540</v>
-      </c>
-      <c r="D20" s="3">
-        <v>99540</v>
-      </c>
-      <c r="E20" s="2">
-        <v>132720</v>
-      </c>
-      <c r="F20" s="2">
-        <v>116140</v>
-      </c>
-      <c r="G20" s="2">
-        <v>116140</v>
-      </c>
-      <c r="H20" s="2">
-        <v>199080</v>
-      </c>
-      <c r="I20" s="2">
-        <v>232260</v>
-      </c>
-      <c r="J20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="K20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="L20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="M20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="N20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="O20" s="2">
-        <v>331780</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="20" customHeight="1">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>122880</v>
-      </c>
-      <c r="D21" s="3">
-        <v>122880</v>
-      </c>
-      <c r="E21" s="2">
-        <v>163840</v>
-      </c>
-      <c r="F21" s="2">
-        <v>143360</v>
-      </c>
-      <c r="G21" s="2">
-        <v>143360</v>
-      </c>
-      <c r="H21" s="2">
-        <v>245760</v>
-      </c>
-      <c r="I21" s="2">
-        <v>286720</v>
-      </c>
-      <c r="J21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="K21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="L21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="M21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="N21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="O21" s="2">
-        <v>409600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="20" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="20" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" ht="20" customHeight="1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="20" customHeight="1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="20" customHeight="1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="20" customHeight="1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="20" customHeight="1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="20" customHeight="1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="20" customHeight="1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="20" customHeight="1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="20" customHeight="1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="20" customHeight="1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="20" customHeight="1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="20" customHeight="1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="20" customHeight="1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="20" customHeight="1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="20" customHeight="1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="20" customHeight="1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" ht="20" customHeight="1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="20" customHeight="1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" ht="20" customHeight="1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="20" customHeight="1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" ht="20" customHeight="1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="20" customHeight="1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" ht="20" customHeight="1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" ht="20" customHeight="1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="20" customHeight="1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="20" customHeight="1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" ht="20" customHeight="1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" ht="20" customHeight="1">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:5" ht="20" customHeight="1">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:5" ht="20" customHeight="1">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" ht="20" customHeight="1">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:5" ht="20" customHeight="1">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" ht="20" customHeight="1">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" ht="20" customHeight="1">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:5" ht="20" customHeight="1">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="3:5" ht="20" customHeight="1">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:5" ht="20" customHeight="1">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:5" ht="20" customHeight="1">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" ht="20" customHeight="1">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:5" ht="20" customHeight="1">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" ht="20" customHeight="1">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:5" ht="20" customHeight="1">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:5" ht="20" customHeight="1">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:5" ht="20" customHeight="1">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5" ht="20" customHeight="1">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="3:5" ht="20" customHeight="1">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5" ht="20" customHeight="1">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="3:5" ht="20" customHeight="1">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="3:5" ht="20" customHeight="1">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="3:5" ht="20" customHeight="1">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="3:5" ht="20" customHeight="1">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="3:5" ht="20" customHeight="1">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="3:5" ht="20" customHeight="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="3:5" ht="20" customHeight="1">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="3:5" ht="20" customHeight="1">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="3:5" ht="20" customHeight="1">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="3:5" ht="20" customHeight="1">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="3:5" ht="20" customHeight="1">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="3:5" ht="20" customHeight="1">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="3:5" ht="20" customHeight="1">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1">
+      <c r="C49" s="8"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1">
+      <c r="C50" s="8"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" ht="20" customHeight="1">
+    <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" ht="20" customHeight="1">
+    <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" ht="20" customHeight="1">
+    <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" ht="20" customHeight="1">
+    <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" ht="20" customHeight="1">
+    <row r="57" spans="1:5" ht="20" customHeight="1">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" ht="20" customHeight="1">
+    <row r="58" spans="1:5" ht="20" customHeight="1">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" ht="20" customHeight="1">
+    <row r="59" spans="1:5" ht="20" customHeight="1">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" ht="20" customHeight="1">
+    <row r="60" spans="1:5" ht="20" customHeight="1">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" ht="20" customHeight="1">
+    <row r="61" spans="1:5" ht="20" customHeight="1">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" ht="20" customHeight="1">
+    <row r="62" spans="1:5" ht="20" customHeight="1">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" ht="20" customHeight="1">
+    <row r="63" spans="1:5" ht="20" customHeight="1">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" ht="20" customHeight="1">
+    <row r="64" spans="1:5" ht="20" customHeight="1">
       <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:1" ht="20" customHeight="1">
@@ -7561,15 +6812,6 @@
     </row>
     <row r="96" spans="1:1" ht="20" customHeight="1">
       <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" ht="20" customHeight="1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" ht="20" customHeight="1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" ht="20" customHeight="1">
-      <c r="A99" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Dragonfall/gameData/shared/Dragons.xlsx
+++ b/Dragonfall/gameData/shared/Dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="1920" yWindow="300" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -245,15 +245,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_hpFrom</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_hpTo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_buffPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_hpFrom</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6358,7 +6358,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6379,13 +6379,13 @@
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>65</v>
@@ -6423,7 +6423,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>

--- a/Dragonfall/gameData/shared/Dragons.xlsx
+++ b/Dragonfall/gameData/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="300" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-24740" yWindow="0" windowWidth="22880" windowHeight="14940" tabRatio="297" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -356,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -421,8 +421,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1526">
+  <cellStyleXfs count="1544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1953,8 +1966,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1980,8 +2011,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1526">
+  <cellStyles count="1544">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2747,6 +2781,15 @@
     <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1542" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3505,6 +3548,15 @@
     <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1543" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5322,8 +5374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5336,7 +5388,9 @@
     <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="20.6640625" style="2"/>
+    <col min="9" max="9" width="8.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
@@ -5534,13 +5588,13 @@
         <v>12400</v>
       </c>
       <c r="C12" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -5551,13 +5605,13 @@
         <v>15360</v>
       </c>
       <c r="C13" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -5568,13 +5622,13 @@
         <v>18480</v>
       </c>
       <c r="C14" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -5585,13 +5639,13 @@
         <v>21760</v>
       </c>
       <c r="C15" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -5602,13 +5656,13 @@
         <v>25200</v>
       </c>
       <c r="C16" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -5619,13 +5673,13 @@
         <v>28800</v>
       </c>
       <c r="C17" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -5636,13 +5690,13 @@
         <v>32560</v>
       </c>
       <c r="C18" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -5653,13 +5707,13 @@
         <v>36480</v>
       </c>
       <c r="C19" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D19" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E19" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -5670,13 +5724,13 @@
         <v>40580</v>
       </c>
       <c r="C20" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E20" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -5687,13 +5741,13 @@
         <v>44820</v>
       </c>
       <c r="C21" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D21" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E21" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -5704,13 +5758,13 @@
         <v>98580</v>
       </c>
       <c r="C22" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D22" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="E22" s="2">
-        <v>259</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -5721,13 +5775,13 @@
         <v>122900</v>
       </c>
       <c r="C23" s="2">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D23" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="E23" s="2">
-        <v>288</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
@@ -5738,13 +5792,13 @@
         <v>149780</v>
       </c>
       <c r="C24" s="2">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D24" s="2">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="E24" s="2">
-        <v>317</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
@@ -5755,13 +5809,13 @@
         <v>179220</v>
       </c>
       <c r="C25" s="2">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="E25" s="2">
-        <v>346</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
@@ -5772,13 +5826,13 @@
         <v>211220</v>
       </c>
       <c r="C26" s="2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D26" s="2">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="E26" s="2">
-        <v>375</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1">
@@ -5789,13 +5843,13 @@
         <v>245780</v>
       </c>
       <c r="C27" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="E27" s="2">
-        <v>404</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1">
@@ -5806,13 +5860,13 @@
         <v>282900</v>
       </c>
       <c r="C28" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="D28" s="2">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="E28" s="2">
-        <v>433</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
@@ -5823,13 +5877,13 @@
         <v>322580</v>
       </c>
       <c r="C29" s="2">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="D29" s="2">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="E29" s="2">
-        <v>462</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
@@ -5840,13 +5894,13 @@
         <v>364800</v>
       </c>
       <c r="C30" s="2">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="D30" s="2">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="E30" s="2">
-        <v>491</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1">
@@ -5857,13 +5911,13 @@
         <v>409600</v>
       </c>
       <c r="C31" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="E31" s="2">
-        <v>520</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1">
@@ -5874,13 +5928,13 @@
         <v>675840</v>
       </c>
       <c r="C32" s="2">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="D32" s="2">
-        <v>512</v>
+        <v>666</v>
       </c>
       <c r="E32" s="2">
-        <v>578</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1">
@@ -5891,13 +5945,13 @@
         <v>798720</v>
       </c>
       <c r="C33" s="2">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="D33" s="2">
-        <v>564</v>
+        <v>733</v>
       </c>
       <c r="E33" s="2">
-        <v>636</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1">
@@ -5908,13 +5962,13 @@
         <v>931840</v>
       </c>
       <c r="C34" s="2">
-        <v>376</v>
+        <v>489</v>
       </c>
       <c r="D34" s="2">
-        <v>616</v>
+        <v>801</v>
       </c>
       <c r="E34" s="2">
-        <v>694</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
@@ -5925,13 +5979,13 @@
         <v>1075200</v>
       </c>
       <c r="C35" s="2">
-        <v>408</v>
+        <v>530</v>
       </c>
       <c r="D35" s="2">
-        <v>668</v>
+        <v>868</v>
       </c>
       <c r="E35" s="2">
-        <v>752</v>
+        <v>978</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
@@ -5942,13 +5996,13 @@
         <v>1228800</v>
       </c>
       <c r="C36" s="2">
-        <v>440</v>
+        <v>572</v>
       </c>
       <c r="D36" s="2">
-        <v>720</v>
+        <v>936</v>
       </c>
       <c r="E36" s="2">
-        <v>810</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1">
@@ -5959,13 +6013,13 @@
         <v>1392640</v>
       </c>
       <c r="C37" s="2">
-        <v>472</v>
+        <v>614</v>
       </c>
       <c r="D37" s="2">
-        <v>772</v>
+        <v>1004</v>
       </c>
       <c r="E37" s="2">
-        <v>868</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1">
@@ -5976,13 +6030,13 @@
         <v>1566720</v>
       </c>
       <c r="C38" s="2">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="D38" s="2">
-        <v>824</v>
+        <v>1071</v>
       </c>
       <c r="E38" s="2">
-        <v>926</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1">
@@ -5993,13 +6047,13 @@
         <v>1751040</v>
       </c>
       <c r="C39" s="2">
-        <v>536</v>
+        <v>697</v>
       </c>
       <c r="D39" s="2">
-        <v>876</v>
+        <v>1139</v>
       </c>
       <c r="E39" s="2">
-        <v>984</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1">
@@ -6010,13 +6064,13 @@
         <v>1945600</v>
       </c>
       <c r="C40" s="2">
-        <v>568</v>
+        <v>738</v>
       </c>
       <c r="D40" s="2">
-        <v>928</v>
+        <v>1206</v>
       </c>
       <c r="E40" s="2">
-        <v>1042</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
@@ -6027,13 +6081,13 @@
         <v>2150400</v>
       </c>
       <c r="C41" s="2">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="D41" s="2">
-        <v>980</v>
+        <v>1274</v>
       </c>
       <c r="E41" s="2">
-        <v>1100</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1">
@@ -6044,13 +6098,13 @@
         <v>3386880</v>
       </c>
       <c r="C42" s="2">
-        <v>664</v>
+        <v>996</v>
       </c>
       <c r="D42" s="2">
-        <v>1083</v>
+        <v>1625</v>
       </c>
       <c r="E42" s="2">
-        <v>1216</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1">
@@ -6061,13 +6115,13 @@
         <v>3773460</v>
       </c>
       <c r="C43" s="2">
-        <v>728</v>
+        <v>1092</v>
       </c>
       <c r="D43" s="2">
-        <v>1186</v>
+        <v>1779</v>
       </c>
       <c r="E43" s="2">
-        <v>1332</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1">
@@ -6078,13 +6132,13 @@
         <v>4180500</v>
       </c>
       <c r="C44" s="2">
-        <v>792</v>
+        <v>1188</v>
       </c>
       <c r="D44" s="2">
-        <v>1289</v>
+        <v>1934</v>
       </c>
       <c r="E44" s="2">
-        <v>1448</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1">
@@ -6095,13 +6149,13 @@
         <v>4608200</v>
       </c>
       <c r="C45" s="2">
-        <v>856</v>
+        <v>1284</v>
       </c>
       <c r="D45" s="2">
-        <v>1392</v>
+        <v>2088</v>
       </c>
       <c r="E45" s="2">
-        <v>1564</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1">
@@ -6112,13 +6166,13 @@
         <v>5056200</v>
       </c>
       <c r="C46" s="2">
-        <v>920</v>
+        <v>1380</v>
       </c>
       <c r="D46" s="2">
-        <v>1495</v>
+        <v>2243</v>
       </c>
       <c r="E46" s="2">
-        <v>1680</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1">
@@ -6129,13 +6183,13 @@
         <v>5524600</v>
       </c>
       <c r="C47" s="2">
-        <v>984</v>
+        <v>1476</v>
       </c>
       <c r="D47" s="2">
-        <v>1598</v>
+        <v>2397</v>
       </c>
       <c r="E47" s="2">
-        <v>1796</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1">
@@ -6145,14 +6199,14 @@
       <c r="B48" s="2">
         <v>6013600</v>
       </c>
-      <c r="C48" s="2">
-        <v>1048</v>
+      <c r="C48" s="8">
+        <v>1572</v>
       </c>
       <c r="D48" s="2">
-        <v>1701</v>
+        <v>2552</v>
       </c>
       <c r="E48" s="2">
-        <v>1912</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1">
@@ -6163,13 +6217,13 @@
         <v>6523000</v>
       </c>
       <c r="C49" s="8">
-        <v>1112</v>
+        <v>1668</v>
       </c>
       <c r="D49" s="2">
-        <v>1804</v>
+        <v>2706</v>
       </c>
       <c r="E49" s="2">
-        <v>2028</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1">
@@ -6180,13 +6234,13 @@
         <v>7053000</v>
       </c>
       <c r="C50" s="8">
-        <v>1176</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1907</v>
-      </c>
-      <c r="E50" s="2">
-        <v>2144</v>
+        <v>1764</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2861</v>
+      </c>
+      <c r="E50" s="8">
+        <v>3216</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1">
@@ -6197,13 +6251,13 @@
         <v>7680200</v>
       </c>
       <c r="C51" s="8">
-        <v>1240</v>
+        <v>1860</v>
       </c>
       <c r="D51" s="8">
-        <v>2010</v>
+        <v>3015</v>
       </c>
       <c r="E51" s="8">
-        <v>2260</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1">
@@ -6357,8 +6411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6393,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
@@ -6408,13 +6462,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -6423,13 +6477,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="8">
+        <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -6438,24 +6492,44 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="9">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.25</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
